--- a/exports/L147-tok-result-csv.xlsx
+++ b/exports/L147-tok-result-csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FDF5BC-C105-6A4D-9122-799C28A9E027}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0FF1E-E331-F545-AC72-680C74D1C8DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{079F99EC-4F6A-6547-94D8-47F21043B19F}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="24740" windowHeight="16540" xr2:uid="{079F99EC-4F6A-6547-94D8-47F21043B19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="525">
   <si>
     <t>Orth</t>
   </si>
@@ -1627,6 +1627,22 @@
   </si>
   <si>
     <t xml:space="preserve">Gloss form? "sana (A) kuu" 'it belongs to' </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">could this also be "to realize"? could this also be "to realize"? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO!</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2085,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD77690B-E3DF-3B4E-B0E4-36B84D155E9B}">
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4423,7 +4439,7 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="9" t="s">
-        <v>311</v>
+        <v>524</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>312</v>
